--- a/data/223/SIDRA/Volume and nominal revenue indices from sales in retail trade by types of index and activities.xlsx
+++ b/data/223/SIDRA/Volume and nominal revenue indices from sales in retail trade by types of index and activities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Tabela 3418 - Índices de volume e de receita nominal de vendas no comércio varejista, por tipos de índice e atividades (2014 = 100)</t>
   </si>
@@ -818,6 +818,15 @@
   </si>
   <si>
     <t>outubro 2021</t>
+  </si>
+  <si>
+    <t>novembro 2021</t>
+  </si>
+  <si>
+    <t>dezembro 2021</t>
+  </si>
+  <si>
+    <t>janeiro 2022</t>
   </si>
   <si>
     <t>Brasil</t>
@@ -967,7 +976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:JD33"/>
+  <dimension ref="A1:JG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,7 +984,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="264" width="10"/>
+    <col min="1" max="267" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1771,6 +1780,15 @@
       <c r="JD1" s="1">
         <v/>
       </c>
+      <c r="JE1" s="1">
+        <v/>
+      </c>
+      <c r="JF1" s="1">
+        <v/>
+      </c>
+      <c r="JG1" s="1">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -2565,6 +2583,15 @@
       <c r="JD2" s="2">
         <v/>
       </c>
+      <c r="JE2" s="2">
+        <v/>
+      </c>
+      <c r="JF2" s="2">
+        <v/>
+      </c>
+      <c r="JG2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -3359,6 +3386,15 @@
       <c r="JD3" s="2">
         <v/>
       </c>
+      <c r="JE3" s="2">
+        <v/>
+      </c>
+      <c r="JF3" s="2">
+        <v/>
+      </c>
+      <c r="JG3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -4153,6 +4189,15 @@
       <c r="JD4" s="2">
         <v/>
       </c>
+      <c r="JE4" s="2">
+        <v/>
+      </c>
+      <c r="JF4" s="2">
+        <v/>
+      </c>
+      <c r="JG4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -4947,13 +4992,22 @@
       <c r="JD5" t="s" s="2">
         <v>267</v>
       </c>
+      <c r="JE5" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="JF5" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="JG5" t="s" s="2">
+        <v>270</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C6" s="4">
         <v>79.8</v>
@@ -5739,7 +5793,16 @@
         <v>70.7</v>
       </c>
       <c r="JD6" s="4">
-        <v>72.3</v>
+        <v>72.4</v>
+      </c>
+      <c r="JE6" s="4">
+        <v>68.6</v>
+      </c>
+      <c r="JF6" s="4">
+        <v>71.9</v>
+      </c>
+      <c r="JG6" s="4">
+        <v>66.3</v>
       </c>
     </row>
     <row r="7">
@@ -5747,7 +5810,7 @@
         <v/>
       </c>
       <c r="B7" t="s" s="3">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C7" s="4">
         <v>54.3</v>
@@ -6533,7 +6596,16 @@
         <v>97.3</v>
       </c>
       <c r="JD7" s="4">
-        <v>102.4</v>
+        <v>103.1</v>
+      </c>
+      <c r="JE7" s="4">
+        <v>102.5</v>
+      </c>
+      <c r="JF7" s="4">
+        <v>122.6</v>
+      </c>
+      <c r="JG7" s="4">
+        <v>97.1</v>
       </c>
     </row>
     <row r="8">
@@ -6541,7 +6613,7 @@
         <v/>
       </c>
       <c r="B8" t="s" s="3">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C8" s="4">
         <v>53.6</v>
@@ -7327,7 +7399,16 @@
         <v>99.2</v>
       </c>
       <c r="JD8" s="4">
-        <v>104.6</v>
+        <v>105.4</v>
+      </c>
+      <c r="JE8" s="4">
+        <v>104.9</v>
+      </c>
+      <c r="JF8" s="4">
+        <v>125.8</v>
+      </c>
+      <c r="JG8" s="4">
+        <v>99.4</v>
       </c>
     </row>
     <row r="9">
@@ -7335,7 +7416,7 @@
         <v/>
       </c>
       <c r="B9" t="s" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C9" s="4">
         <v>47.2</v>
@@ -8122,6 +8203,15 @@
       </c>
       <c r="JD9" s="4">
         <v>79.4</v>
+      </c>
+      <c r="JE9" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="JF9" s="4">
+        <v>144.6</v>
+      </c>
+      <c r="JG9" s="4">
+        <v>59.2</v>
       </c>
     </row>
     <row r="10">
@@ -8129,7 +8219,7 @@
         <v/>
       </c>
       <c r="B10" t="s" s="3">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C10" s="4">
         <v>24.9</v>
@@ -8915,7 +9005,16 @@
         <v>80.7</v>
       </c>
       <c r="JD10" s="4">
-        <v>79.5</v>
+        <v>78.9</v>
+      </c>
+      <c r="JE10" s="4">
+        <v>98.3</v>
+      </c>
+      <c r="JF10" s="4">
+        <v>100.5</v>
+      </c>
+      <c r="JG10" s="4">
+        <v>78.1</v>
       </c>
     </row>
     <row r="11">
@@ -8923,115 +9022,115 @@
         <v/>
       </c>
       <c r="B11" t="s" s="3">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL11" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM11" s="4">
         <v>36.8</v>
@@ -9710,6 +9809,15 @@
       </c>
       <c r="JD11" s="4">
         <v>137.0</v>
+      </c>
+      <c r="JE11" s="4">
+        <v>143.7</v>
+      </c>
+      <c r="JF11" s="4">
+        <v>164.5</v>
+      </c>
+      <c r="JG11" s="4">
+        <v>146.8</v>
       </c>
     </row>
     <row r="12">
@@ -9717,115 +9825,115 @@
         <v/>
       </c>
       <c r="B12" t="s" s="3">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL12" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM12" s="4">
         <v>91.2</v>
@@ -10504,6 +10612,15 @@
       </c>
       <c r="JD12" s="4">
         <v>23.6</v>
+      </c>
+      <c r="JE12" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="JF12" s="4">
+        <v>40.8</v>
+      </c>
+      <c r="JG12" s="4">
+        <v>48.5</v>
       </c>
     </row>
     <row r="13">
@@ -10511,115 +10628,115 @@
         <v/>
       </c>
       <c r="B13" t="s" s="3">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL13" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM13" s="4">
         <v>12.8</v>
@@ -11297,7 +11414,16 @@
         <v>61.6</v>
       </c>
       <c r="JD13" s="4">
-        <v>68.1</v>
+        <v>68.0</v>
+      </c>
+      <c r="JE13" s="4">
+        <v>80.5</v>
+      </c>
+      <c r="JF13" s="4">
+        <v>78.8</v>
+      </c>
+      <c r="JG13" s="4">
+        <v>60.2</v>
       </c>
     </row>
     <row r="14">
@@ -11305,115 +11431,115 @@
         <v/>
       </c>
       <c r="B14" t="s" s="3">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL14" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM14" s="4">
         <v>23.6</v>
@@ -12092,14 +12218,23 @@
       </c>
       <c r="JD14" s="4">
         <v>118.4</v>
+      </c>
+      <c r="JE14" s="4">
+        <v>149.3</v>
+      </c>
+      <c r="JF14" s="4">
+        <v>153.5</v>
+      </c>
+      <c r="JG14" s="4">
+        <v>108.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="3">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C15" s="4">
         <v>101.3</v>
@@ -12886,6 +13021,15 @@
       </c>
       <c r="JD15" s="4">
         <v>56.9</v>
+      </c>
+      <c r="JE15" s="4">
+        <v>55.2</v>
+      </c>
+      <c r="JF15" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="JG15" s="4">
+        <v>49.0</v>
       </c>
     </row>
     <row r="16">
@@ -12893,7 +13037,7 @@
         <v/>
       </c>
       <c r="B16" t="s" s="3">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C16" s="4">
         <v>64.6</v>
@@ -13679,7 +13823,16 @@
         <v>83.5</v>
       </c>
       <c r="JD16" s="4">
-        <v>79.7</v>
+        <v>85.3</v>
+      </c>
+      <c r="JE16" s="4">
+        <v>82.1</v>
+      </c>
+      <c r="JF16" s="4">
+        <v>103.3</v>
+      </c>
+      <c r="JG16" s="4">
+        <v>80.6</v>
       </c>
     </row>
     <row r="17">
@@ -13687,7 +13840,7 @@
         <v/>
       </c>
       <c r="B17" t="s" s="3">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C17" s="4">
         <v>67.0</v>
@@ -14473,7 +14626,16 @@
         <v>81.6</v>
       </c>
       <c r="JD17" s="4">
-        <v>78.1</v>
+        <v>85.2</v>
+      </c>
+      <c r="JE17" s="4">
+        <v>81.4</v>
+      </c>
+      <c r="JF17" s="4">
+        <v>101.1</v>
+      </c>
+      <c r="JG17" s="4">
+        <v>78.4</v>
       </c>
     </row>
     <row r="18">
@@ -14481,7 +14643,7 @@
         <v/>
       </c>
       <c r="B18" t="s" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C18" s="4">
         <v>61.2</v>
@@ -15268,6 +15430,15 @@
       </c>
       <c r="JD18" s="4">
         <v>63.2</v>
+      </c>
+      <c r="JE18" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="JF18" s="4">
+        <v>119.3</v>
+      </c>
+      <c r="JG18" s="4">
+        <v>49.3</v>
       </c>
     </row>
     <row r="19">
@@ -15275,7 +15446,7 @@
         <v/>
       </c>
       <c r="B19" t="s" s="3">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C19" s="4">
         <v>35.2</v>
@@ -16062,6 +16233,15 @@
       </c>
       <c r="JD19" s="4">
         <v>87.8</v>
+      </c>
+      <c r="JE19" s="4">
+        <v>136.3</v>
+      </c>
+      <c r="JF19" s="4">
+        <v>139.0</v>
+      </c>
+      <c r="JG19" s="4">
+        <v>103.8</v>
       </c>
     </row>
     <row r="20">
@@ -16069,151 +16249,151 @@
         <v/>
       </c>
       <c r="B20" t="s" s="3">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AO20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AP20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AR20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AS20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AT20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AU20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AV20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AW20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AX20" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AY20" s="4">
         <v>57.4</v>
@@ -16856,6 +17036,15 @@
       </c>
       <c r="JD20" s="4">
         <v>115.6</v>
+      </c>
+      <c r="JE20" s="4">
+        <v>124.7</v>
+      </c>
+      <c r="JF20" s="4">
+        <v>137.2</v>
+      </c>
+      <c r="JG20" s="4">
+        <v>131.1</v>
       </c>
     </row>
     <row r="21">
@@ -16863,151 +17052,151 @@
         <v/>
       </c>
       <c r="B21" t="s" s="3">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AO21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AP21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AR21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AS21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AT21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AU21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AV21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AW21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AX21" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AY21" s="4">
         <v>107.1</v>
@@ -17650,6 +17839,15 @@
       </c>
       <c r="JD21" s="4">
         <v>35.5</v>
+      </c>
+      <c r="JE21" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="JF21" s="4">
+        <v>67.3</v>
+      </c>
+      <c r="JG21" s="4">
+        <v>58.9</v>
       </c>
     </row>
     <row r="22">
@@ -17657,151 +17855,151 @@
         <v/>
       </c>
       <c r="B22" t="s" s="3">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AO22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AP22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AR22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AS22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AT22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AU22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AV22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AW22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AX22" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AY22" s="4">
         <v>12.2</v>
@@ -18444,6 +18642,15 @@
       </c>
       <c r="JD22" s="4">
         <v>68.6</v>
+      </c>
+      <c r="JE22" s="4">
+        <v>89.9</v>
+      </c>
+      <c r="JF22" s="4">
+        <v>99.2</v>
+      </c>
+      <c r="JG22" s="4">
+        <v>67.4</v>
       </c>
     </row>
     <row r="23">
@@ -18451,151 +18658,151 @@
         <v/>
       </c>
       <c r="B23" t="s" s="3">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AO23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AP23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AR23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AS23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AT23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AU23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AV23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AW23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AX23" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AY23" s="4">
         <v>27.0</v>
@@ -19238,14 +19445,23 @@
       </c>
       <c r="JD23" s="4">
         <v>101.4</v>
+      </c>
+      <c r="JE23" s="4">
+        <v>139.3</v>
+      </c>
+      <c r="JF23" s="4">
+        <v>140.1</v>
+      </c>
+      <c r="JG23" s="4">
+        <v>101.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="3">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C24" s="4">
         <v>89.1</v>
@@ -20031,7 +20247,16 @@
         <v>83.3</v>
       </c>
       <c r="JD24" s="4">
-        <v>79.0</v>
+        <v>79.4</v>
+      </c>
+      <c r="JE24" s="4">
+        <v>77.9</v>
+      </c>
+      <c r="JF24" s="4">
+        <v>79.1</v>
+      </c>
+      <c r="JG24" s="4">
+        <v>71.9</v>
       </c>
     </row>
     <row r="25">
@@ -20039,7 +20264,7 @@
         <v/>
       </c>
       <c r="B25" t="s" s="3">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C25" s="4">
         <v>49.4</v>
@@ -20826,6 +21051,15 @@
       </c>
       <c r="JD25" s="4">
         <v>105.7</v>
+      </c>
+      <c r="JE25" s="4">
+        <v>108.4</v>
+      </c>
+      <c r="JF25" s="4">
+        <v>127.2</v>
+      </c>
+      <c r="JG25" s="4">
+        <v>100.5</v>
       </c>
     </row>
     <row r="26">
@@ -20833,7 +21067,7 @@
         <v/>
       </c>
       <c r="B26" t="s" s="3">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C26" s="4">
         <v>48.5</v>
@@ -21620,6 +21854,15 @@
       </c>
       <c r="JD26" s="4">
         <v>109.9</v>
+      </c>
+      <c r="JE26" s="4">
+        <v>112.8</v>
+      </c>
+      <c r="JF26" s="4">
+        <v>133.1</v>
+      </c>
+      <c r="JG26" s="4">
+        <v>104.7</v>
       </c>
     </row>
     <row r="27">
@@ -21627,7 +21870,7 @@
         <v/>
       </c>
       <c r="B27" t="s" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C27" s="4">
         <v>49.0</v>
@@ -22414,6 +22657,15 @@
       </c>
       <c r="JD27" s="4">
         <v>73.6</v>
+      </c>
+      <c r="JE27" s="4">
+        <v>77.4</v>
+      </c>
+      <c r="JF27" s="4">
+        <v>140.6</v>
+      </c>
+      <c r="JG27" s="4">
+        <v>53.8</v>
       </c>
     </row>
     <row r="28">
@@ -22421,7 +22673,7 @@
         <v/>
       </c>
       <c r="B28" t="s" s="3">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C28" s="4">
         <v>27.8</v>
@@ -23208,6 +23460,15 @@
       </c>
       <c r="JD28" s="4">
         <v>87.2</v>
+      </c>
+      <c r="JE28" s="4">
+        <v>97.7</v>
+      </c>
+      <c r="JF28" s="4">
+        <v>97.8</v>
+      </c>
+      <c r="JG28" s="4">
+        <v>78.1</v>
       </c>
     </row>
     <row r="29">
@@ -23215,151 +23476,151 @@
         <v/>
       </c>
       <c r="B29" t="s" s="3">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AP29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AR29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AS29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AT29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AU29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AV29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AW29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AX29" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AY29" s="4">
         <v>40.9</v>
@@ -24002,6 +24263,15 @@
       </c>
       <c r="JD29" s="4">
         <v>139.7</v>
+      </c>
+      <c r="JE29" s="4">
+        <v>142.3</v>
+      </c>
+      <c r="JF29" s="4">
+        <v>185.1</v>
+      </c>
+      <c r="JG29" s="4">
+        <v>146.3</v>
       </c>
     </row>
     <row r="30">
@@ -24009,151 +24279,151 @@
         <v/>
       </c>
       <c r="B30" t="s" s="3">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AP30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AR30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AS30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AT30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AU30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AV30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AW30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AX30" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AY30" s="4">
         <v>63.6</v>
@@ -24796,6 +25066,15 @@
       </c>
       <c r="JD30" s="4">
         <v>11.9</v>
+      </c>
+      <c r="JE30" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="JF30" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="JG30" s="4">
+        <v>33.5</v>
       </c>
     </row>
     <row r="31">
@@ -24803,151 +25082,151 @@
         <v/>
       </c>
       <c r="B31" t="s" s="3">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AO31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AP31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AR31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AS31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AT31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AU31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AV31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AW31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AX31" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AY31" s="4">
         <v>13.6</v>
@@ -25590,6 +25869,15 @@
       </c>
       <c r="JD31" s="4">
         <v>43.5</v>
+      </c>
+      <c r="JE31" s="4">
+        <v>55.7</v>
+      </c>
+      <c r="JF31" s="4">
+        <v>57.9</v>
+      </c>
+      <c r="JG31" s="4">
+        <v>41.6</v>
       </c>
     </row>
     <row r="32">
@@ -25597,151 +25885,151 @@
         <v/>
       </c>
       <c r="B32" t="s" s="3">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="U32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="V32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="W32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="X32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Z32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AA32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AC32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AD32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AE32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AH32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AM32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AN32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AO32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AP32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AQ32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AR32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AS32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AT32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AU32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AV32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AW32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AX32" t="s" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AY32" s="4">
         <v>25.5</v>
@@ -26384,11 +26672,20 @@
       </c>
       <c r="JD32" s="4">
         <v>110.3</v>
+      </c>
+      <c r="JE32" s="4">
+        <v>142.2</v>
+      </c>
+      <c r="JF32" s="4">
+        <v>145.8</v>
+      </c>
+      <c r="JG32" s="4">
+        <v>107.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2">
         <v/>
@@ -27177,21 +27474,30 @@
         <v/>
       </c>
       <c r="JD33" s="2">
+        <v/>
+      </c>
+      <c r="JE33" s="2">
+        <v/>
+      </c>
+      <c r="JF33" s="2">
+        <v/>
+      </c>
+      <c r="JG33" s="2">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:JD1"/>
-    <mergeCell ref="A2:JD2"/>
-    <mergeCell ref="A3:JD3"/>
+    <mergeCell ref="A1:JG1"/>
+    <mergeCell ref="A2:JG2"/>
+    <mergeCell ref="A3:JG3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:JD4"/>
+    <mergeCell ref="C4:JG4"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A24:A32"/>
-    <mergeCell ref="A33:JD33"/>
+    <mergeCell ref="A33:JG33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
